--- a/ig/majKereval/StructureDefinition-ror-organization-oi-name.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-organization-oi-name.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-13T14:59:56+00:00</t>
+    <t>2023-03-13T15:28:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-organization-oi-name.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-organization-oi-name.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-13T15:28:19+00:00</t>
+    <t>2023-03-14T07:46:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-organization-oi-name.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-organization-oi-name.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-14T07:46:37+00:00</t>
+    <t>2023-03-15T15:36:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-organization-oi-name.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-organization-oi-name.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-15T15:36:42+00:00</t>
+    <t>2023-03-15T15:41:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-organization-oi-name.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-organization-oi-name.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-15T15:41:30+00:00</t>
+    <t>2023-03-21T15:32:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-organization-oi-name.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-organization-oi-name.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-21T15:32:49+00:00</t>
+    <t>2023-03-27T14:30:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-organization-oi-name.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-organization-oi-name.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-27T14:30:28+00:00</t>
+    <t>2023-03-27T14:49:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-organization-oi-name.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-organization-oi-name.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-27T14:49:55+00:00</t>
+    <t>2023-03-28T07:26:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-organization-oi-name.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-organization-oi-name.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-28T07:26:22+00:00</t>
+    <t>2023-03-28T08:50:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-organization-oi-name.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-organization-oi-name.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-28T08:50:23+00:00</t>
+    <t>2023-03-28T13:00:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-organization-oi-name.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-organization-oi-name.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-28T13:00:55+00:00</t>
+    <t>2023-03-29T15:26:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-organization-oi-name.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-organization-oi-name.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-29T15:26:54+00:00</t>
+    <t>2023-03-30T07:20:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-organization-oi-name.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-organization-oi-name.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-30T07:20:01+00:00</t>
+    <t>2023-03-30T08:12:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-organization-oi-name.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-organization-oi-name.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-30T08:12:51+00:00</t>
+    <t>2023-03-31T06:57:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-organization-oi-name.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-organization-oi-name.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/ror30/StructureDefinition/ror-organization-oi-name</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-organization-oi-name</t>
   </si>
   <si>
     <t>Version</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-31T06:57:00+00:00</t>
+    <t>2023-04-05T09:21:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
